--- a/tests/databooks/progbook_tb_simple.xlsx
+++ b/tests/databooks/progbook_tb_simple.xlsx
@@ -8,21 +8,80 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48F15891-5997-6C4E-A0BB-44068073C42D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5206528C-363F-3943-8516-1DA13EC44550}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{25A1D214-5300-8440-8F8D-E09B4CE3EC55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cost per positive diagnosis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{E29A7805-7E97-3246-A0E4-695091F4DF75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cost per positive diagnosis</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -37,12 +96,6 @@
   </si>
   <si>
     <t>Adults</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Vaccinated</t>
   </si>
   <si>
     <t>Undiagnosed</t>
@@ -87,6 +140,9 @@
     <t>Coverage</t>
   </si>
   <si>
+    <t>Test sensitivity</t>
+  </si>
+  <si>
     <t>Baseline value</t>
   </si>
   <si>
@@ -96,16 +152,10 @@
     <t>Impact interaction</t>
   </si>
   <si>
-    <t>Test sensitivity</t>
-  </si>
-  <si>
     <t>Initiation rate</t>
   </si>
   <si>
     <t>Loss-to-follow-up rate</t>
-  </si>
-  <si>
-    <t>BCG vaccination</t>
   </si>
   <si>
     <t>Passive case finding</t>
@@ -128,15 +178,12 @@
   <si>
     <t>Best</t>
   </si>
-  <si>
-    <t>Vaccination rate</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -209,6 +262,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,7 +285,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="112">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -953,96 +1009,6 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1278,178 +1244,6 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1631,6 +1425,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Program targeting"/>
+      <sheetName val="Spending data"/>
+      <sheetName val="Program effects"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Treatment initiation</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Treatment support</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,19 +1776,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="14.83203125" customWidth="1"/>
-    <col min="5" max="11" width="14.83203125" customWidth="1"/>
+    <col min="5" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1999,376 +1821,234 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C7">
-    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="142" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="141" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="140" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="106" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="135" priority="26" operator="equal">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="equal">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="102" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="132" priority="11" operator="equal">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="100" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="131" priority="19" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="130" priority="27" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="98" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="97" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="96" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="127" priority="12" operator="equal">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="126" priority="20" operator="equal">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="125" priority="28" operator="equal">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="92" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="121" priority="21" operator="equal">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="120" priority="29" operator="equal">
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="119" priority="37" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="117" priority="14" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="115" priority="30" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="114" priority="38" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="112" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="111" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="110" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="109" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="105" priority="32" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="104" priority="40" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:K7 C3:C7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:I6 C3:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2377,11 +2057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2390,18 +2070,19 @@
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>BCG vaccination</v>
+        <v>Passive case finding</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2">
@@ -2422,47 +2103,47 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
-        <f>G3*G6</f>
-        <v>6098664</v>
+        <v>1021900</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>12</v>
+      <c r="G3" s="6">
+        <f>G2/(G6*1.5%)</f>
+        <v>666.66666666666674</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2472,12 +2153,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2487,17 +2168,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <v>508222</v>
+        <v>102190</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2505,13 +2186,13 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>Passive case finding</v>
+        <v>Active case finding</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2532,47 +2213,47 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <f>G10*G13</f>
-        <v>1021900</v>
+        <v>1907536</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>10</v>
+      <c r="G10" s="6">
+        <f>G9/(G13*1.5%)</f>
+        <v>533.33333333333337</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2582,12 +2263,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2597,18 +2278,17 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <f>ROUND(340632*0.3,0)</f>
-        <v>102190</v>
+        <v>238442</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2616,13 +2296,13 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>Active case finding</v>
+        <v>Treatment initiation</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
@@ -2643,47 +2323,46 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f>G17*G20</f>
-        <v>1907536</v>
+        <v>5250000</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2693,12 +2372,12 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2708,18 +2387,17 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <f>ROUND(340632*0.7,0)</f>
-        <v>238442</v>
+        <v>150000</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2727,13 +2405,13 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>Treatment initiation</v>
+        <v>Treatment support</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
@@ -2754,47 +2432,46 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <f>G24*G27</f>
-        <v>5250000</v>
+        <v>3000000</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2804,12 +2481,12 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2819,342 +2496,193 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="str">
-        <f>'Program targeting'!$A$7</f>
-        <v>Treatment support</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2016</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2017</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>3000000</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>100</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <f>G30/G31</f>
-        <v>30000</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="87" priority="13">
       <formula>COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="14">
+    <cfRule type="expression" dxfId="86" priority="14">
       <formula>AND(COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="101" priority="15">
+    <cfRule type="expression" dxfId="85" priority="15">
       <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="16">
+    <cfRule type="expression" dxfId="84" priority="16">
       <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="99" priority="17">
+    <cfRule type="expression" dxfId="83" priority="17">
       <formula>COUNTIF(E12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="18">
+    <cfRule type="expression" dxfId="82" priority="18">
       <formula>AND(COUNTIF(E12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="97" priority="19">
+    <cfRule type="expression" dxfId="81" priority="19">
       <formula>COUNTIF(E13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="20">
+    <cfRule type="expression" dxfId="80" priority="20">
       <formula>AND(COUNTIF(E13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="95" priority="21">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="22">
+    <cfRule type="expression" dxfId="78" priority="22">
       <formula>AND(COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="93" priority="23">
+    <cfRule type="expression" dxfId="77" priority="23">
       <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="24">
+    <cfRule type="expression" dxfId="76" priority="24">
       <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="91" priority="25">
+    <cfRule type="expression" dxfId="75" priority="25">
       <formula>COUNTIF(E18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="26">
+    <cfRule type="expression" dxfId="74" priority="26">
       <formula>AND(COUNTIF(E18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="89" priority="27">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>COUNTIF(E19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="28">
+    <cfRule type="expression" dxfId="72" priority="28">
       <formula>AND(COUNTIF(E19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="85" priority="29">
+    <cfRule type="expression" dxfId="69" priority="29">
       <formula>COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="30">
+    <cfRule type="expression" dxfId="68" priority="30">
       <formula>AND(COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="83" priority="31">
+    <cfRule type="expression" dxfId="67" priority="31">
       <formula>COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="32">
+    <cfRule type="expression" dxfId="66" priority="32">
       <formula>AND(COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="81" priority="33">
+    <cfRule type="expression" dxfId="65" priority="33">
       <formula>COUNTIF(E24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="34">
+    <cfRule type="expression" dxfId="64" priority="34">
       <formula>AND(COUNTIF(E24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="79" priority="35">
+    <cfRule type="expression" dxfId="63" priority="35">
       <formula>COUNTIF(E25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="36">
+    <cfRule type="expression" dxfId="62" priority="36">
       <formula>AND(COUNTIF(E25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="77" priority="37">
+    <cfRule type="expression" dxfId="61" priority="37">
       <formula>COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="38">
+    <cfRule type="expression" dxfId="60" priority="38">
       <formula>AND(COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="75" priority="39">
+    <cfRule type="expression" dxfId="59" priority="39">
       <formula>COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="40">
+    <cfRule type="expression" dxfId="58" priority="40">
       <formula>AND(COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>AND(COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="71" priority="41">
-      <formula>COUNTIF(E30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="42">
-      <formula>AND(COUNTIF(E30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="69" priority="43">
-      <formula>COUNTIF(E31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="44">
-      <formula>AND(COUNTIF(E31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="67" priority="45">
-      <formula>COUNTIF(E32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="46">
-      <formula>AND(COUNTIF(E32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="65" priority="47">
-      <formula>COUNTIF(E33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="48">
-      <formula>AND(COUNTIF(E33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="63" priority="49">
-      <formula>COUNTIF(E34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50">
-      <formula>AND(COUNTIF(E34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="61" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>AND(COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="59" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>COUNTIF(E6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>AND(COUNTIF(E6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="12">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>AND(COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3163,48 +2691,44 @@
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" customWidth="1"/>
-    <col min="7" max="11" width="12.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>BCG vaccination</v>
-      </c>
-      <c r="H1" s="6" t="str">
+        <v>Passive case finding</v>
+      </c>
+      <c r="H1" s="7" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>Passive case finding</v>
-      </c>
-      <c r="I1" s="6" t="str">
+        <v>Active case finding</v>
+      </c>
+      <c r="I1" s="7" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>Active case finding</v>
-      </c>
-      <c r="J1" s="6" t="str">
+        <v>Treatment initiation</v>
+      </c>
+      <c r="J1" s="7" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="K1" s="6" t="str">
-        <f>'Program targeting'!$A$7</f>
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -3213,58 +2737,55 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="G2" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>BCG vaccination</v>
-      </c>
-      <c r="H4" s="6" t="str">
+        <v>Passive case finding</v>
+      </c>
+      <c r="H4" s="7" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>Passive case finding</v>
-      </c>
-      <c r="I4" s="6" t="str">
+        <v>Active case finding</v>
+      </c>
+      <c r="I4" s="7" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>Active case finding</v>
-      </c>
-      <c r="J4" s="6" t="str">
+        <v>Treatment initiation</v>
+      </c>
+      <c r="J4" s="7" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="K4" s="6" t="str">
-        <f>'Program targeting'!$A$7</f>
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -3273,60 +2794,53 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>BCG vaccination</v>
-      </c>
-      <c r="H7" s="6" t="str">
+        <v>Passive case finding</v>
+      </c>
+      <c r="H7" s="7" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>Passive case finding</v>
-      </c>
-      <c r="I7" s="6" t="str">
-        <f>'Program targeting'!$A$5</f>
         <v>Active case finding</v>
       </c>
-      <c r="J7" s="6" t="str">
-        <f>'Program targeting'!$A$6</f>
+      <c r="I7" s="7" t="str">
+        <f>'[1]Program targeting'!$A$6</f>
         <v>Treatment initiation</v>
       </c>
-      <c r="K7" s="6" t="str">
-        <f>'Program targeting'!$A$7</f>
+      <c r="J7" s="7" t="str">
+        <f>'[1]Program targeting'!$A$7</f>
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -3335,86 +2849,25 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="str">
-        <f>'Program targeting'!$A$3</f>
-        <v>BCG vaccination</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f>'Program targeting'!$A$4</f>
-        <v>Passive case finding</v>
-      </c>
-      <c r="I10" s="6" t="str">
-        <f>'Program targeting'!$A$5</f>
-        <v>Active case finding</v>
-      </c>
-      <c r="J10" s="6" t="str">
-        <f>'Program targeting'!$A$6</f>
-        <v>Treatment initiation</v>
-      </c>
-      <c r="K10" s="6" t="str">
-        <f>'Program targeting'!$A$7</f>
-        <v>Treatment support</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>'Program targeting'!$C$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C5 C11 C2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D5 D11 D2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3423,8 +2876,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-00001F000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3433,7 +2886,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-000020000000}">
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-00000C000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -3459,11 +2912,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G11</xm:sqref>
+          <xm:sqref>G5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-00000B000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3472,7 +2925,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00000C000000}">
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000016000000}">
             <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -3498,11 +2951,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G5</xm:sqref>
+          <xm:sqref>G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000015000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3511,46 +2964,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000016000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-000021000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000022000000}">
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00000E000000}">
             <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -3576,11 +2990,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00000D000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3589,7 +3003,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00000E000000}">
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000018000000}">
             <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -3615,11 +3029,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H5</xm:sqref>
+          <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000017000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3628,46 +3042,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000018000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000023000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-000024000000}">
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000006000000}">
             <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
@@ -3693,11 +3068,11 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I11</xm:sqref>
+          <xm:sqref>I2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-00000F000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3706,8 +3081,164 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-000010000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{3DC31EF4-9C03-4E4A-BE0B-5D290A41A6BA}">
+            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{EC619C9F-3EA3-3E48-B43D-4372CD341D33}">
+            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{1C551198-1DF3-834C-9119-901E3F7A8A86}">
+            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{612BBDFA-5A41-3E44-B530-5C830913FC23}">
+            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{1E77E578-4BAA-3043-AAC0-2B9294F3CF3E}">
+            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{4B360A0F-C52D-1143-B9E2-D9988605373A}">
+            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{A790C77D-D849-AC43-A87C-0C2885D53234}">
+            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{B28E66A5-A498-DE43-B017-500C955EA72D}">
+            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3735,8 +3266,8 @@
           <xm:sqref>I5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-000019000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+          <x14:cfRule type="expression" priority="5" id="{3EDFEA2D-6231-5B43-8648-8AD810F0CAFB}">
+            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3745,86 +3276,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-00001A000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-000025000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-000026000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-000011000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000012000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="6" id="{D1CB22EF-615E-5444-9F21-98928479B963}">
+            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3852,8 +3305,8 @@
           <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-00001B000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+          <x14:cfRule type="expression" priority="1" id="{6FADB7D4-72A2-CA47-996E-BF73A7CAC581}">
+            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3862,8 +3315,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-00001C000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+          <x14:cfRule type="expression" priority="2" id="{3B257E8C-CB74-C945-8192-91A3B44230D2}">
+            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3890,318 +3343,6 @@
           </x14:cfRule>
           <xm:sqref>J8</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000013000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000014000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-00001D000000}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-00001E000000}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{BDB4054B-DAC2-434F-8643-FC0D4215519A}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{8E4B4880-D402-0842-A0BD-ECFD2DACDFA0}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{AFA2DE3B-A0BA-2E48-A944-6F7B74947A77}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{B563E20D-B775-3C4C-975B-F09480614CA7}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{1C81BFEF-3D4B-A44F-8C25-45F342E762FE}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{E1ECE792-B393-FA41-9B76-608367108ACD}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{F9CEF7BB-8882-A94D-AD69-05E67275FAA1}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{42A29132-ABC7-824B-A953-CDB217AFDBE4}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{6CF12F8E-5180-1D46-9426-8971FFCA2C4E}">
-            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{B4F6252C-F9AF-E540-A85C-087A05718777}">
-            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{A262D49D-2631-D644-992A-2C01E0D49340}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{80039032-7345-7449-9EB4-08F60FA43CE0}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K11</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/tests/databooks/progbook_tb_simple.xlsx
+++ b/tests/databooks/progbook_tb_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5206528C-363F-3943-8516-1DA13EC44550}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798971F-E39F-4064-9E06-7A6F0AF3282A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,16 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -285,367 +293,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1450,6 +1098,19 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Program targeting"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1782,13 +1443,13 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.83203125" customWidth="1"/>
-    <col min="5" max="9" width="14.83203125" customWidth="1"/>
+    <col min="1" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1928,122 +1589,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="106" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="102" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="100" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="98" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="97" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="96" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="94" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="92" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2060,20 +1721,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Passive case finding</v>
@@ -2101,7 +1762,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2118,7 +1779,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +1797,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2151,7 +1812,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2166,7 +1827,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2183,7 +1844,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Active case finding</v>
@@ -2211,7 +1872,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2228,7 +1889,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2246,7 +1907,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +1922,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +1937,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +1954,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Treatment initiation</v>
@@ -2321,7 +1982,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2338,7 +1999,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2355,7 +2016,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2370,7 +2031,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2385,7 +2046,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2402,7 +2063,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment support</v>
@@ -2430,7 +2091,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2108,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2464,7 +2125,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2479,7 +2140,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2494,7 +2155,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -2513,162 +2174,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="87" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>AND(COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="85" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="83" priority="17">
+    <cfRule type="expression" dxfId="59" priority="17">
       <formula>COUNTIF(E12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="18">
+    <cfRule type="expression" dxfId="58" priority="18">
       <formula>AND(COUNTIF(E12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="81" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>COUNTIF(E13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>AND(COUNTIF(E13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="79" priority="21">
+    <cfRule type="expression" dxfId="55" priority="21">
       <formula>COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="22">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>AND(COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="77" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="75" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>COUNTIF(E18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="26">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>AND(COUNTIF(E18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="73" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>COUNTIF(E19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>AND(COUNTIF(E19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="69" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>AND(COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="67" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>AND(COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="65" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>COUNTIF(E24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="34">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>AND(COUNTIF(E24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="63" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>COUNTIF(E25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>AND(COUNTIF(E25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="61" priority="37">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="38">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>AND(COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="59" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>AND(COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>AND(COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>COUNTIF(E6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>AND(COUNTIF(E6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>AND(COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2682,20 +2343,20 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" customWidth="1"/>
+    <col min="7" max="10" width="10.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2728,7 +2389,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2752,7 +2413,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2785,7 +2446,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2807,7 +2468,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2840,7 +2501,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2859,7 +2520,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +2772,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{3DC31EF4-9C03-4E4A-BE0B-5D290A41A6BA}">
-            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3121,7 +2782,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="10" id="{EC619C9F-3EA3-3E48-B43D-4372CD341D33}">
-            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3150,7 +2811,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{1C551198-1DF3-834C-9119-901E3F7A8A86}">
-            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3160,7 +2821,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="12" id="{612BBDFA-5A41-3E44-B530-5C830913FC23}">
-            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3189,7 +2850,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{1E77E578-4BAA-3043-AAC0-2B9294F3CF3E}">
-            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3199,7 +2860,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="8" id="{4B360A0F-C52D-1143-B9E2-D9988605373A}">
-            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3228,7 +2889,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{A790C77D-D849-AC43-A87C-0C2885D53234}">
-            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3238,7 +2899,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="4" id="{B28E66A5-A498-DE43-B017-500C955EA72D}">
-            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3267,7 +2928,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{3EDFEA2D-6231-5B43-8648-8AD810F0CAFB}">
-            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3277,7 +2938,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="6" id="{D1CB22EF-615E-5444-9F21-98928479B963}">
-            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3306,7 +2967,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{6FADB7D4-72A2-CA47-996E-BF73A7CAC581}">
-            <xm:f>AND('/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -3316,7 +2977,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{3B257E8C-CB74-C945-8192-91A3B44230D2}">
-            <xm:f>'/Users/robynstuart/Documents/git/atomica/tests/databooks/[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">

--- a/tests/databooks/progbook_tb_simple.xlsx
+++ b/tests/databooks/progbook_tb_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798971F-E39F-4064-9E06-7A6F0AF3282A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD199AB8-7F55-144A-B28C-D2545CBE1842}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -1443,13 +1443,13 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="9" width="14.85546875" customWidth="1"/>
+    <col min="1" max="3" width="14.83203125" customWidth="1"/>
+    <col min="5" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1721,20 +1721,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Passive case finding</v>
@@ -1762,7 +1762,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Active case finding</v>
@@ -1872,7 +1872,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Treatment initiation</v>
@@ -1982,7 +1982,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment support</v>
@@ -2091,7 +2091,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -2342,21 +2342,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" customWidth="1"/>
-    <col min="7" max="10" width="10.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2413,7 +2413,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2772,7 +2772,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{3DC31EF4-9C03-4E4A-BE0B-5D290A41A6BA}">
-            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <xm:f>AND('/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2782,7 +2782,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="10" id="{EC619C9F-3EA3-3E48-B43D-4372CD341D33}">
-            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2811,7 +2811,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{1C551198-1DF3-834C-9119-901E3F7A8A86}">
-            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <xm:f>AND('/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2821,7 +2821,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="12" id="{612BBDFA-5A41-3E44-B530-5C830913FC23}">
-            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2850,7 +2850,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{1E77E578-4BAA-3043-AAC0-2B9294F3CF3E}">
-            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <xm:f>AND('/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2860,7 +2860,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="8" id="{4B360A0F-C52D-1143-B9E2-D9988605373A}">
-            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2889,7 +2889,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{A790C77D-D849-AC43-A87C-0C2885D53234}">
-            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <xm:f>AND('/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2899,7 +2899,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="4" id="{B28E66A5-A498-DE43-B017-500C955EA72D}">
-            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2928,7 +2928,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{3EDFEA2D-6231-5B43-8648-8AD810F0CAFB}">
-            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <xm:f>AND('/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2938,7 +2938,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="6" id="{D1CB22EF-615E-5444-9F21-98928479B963}">
-            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2967,7 +2967,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{6FADB7D4-72A2-CA47-996E-BF73A7CAC581}">
-            <xm:f>AND('C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <xm:f>AND('/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
@@ -2977,7 +2977,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{3B257E8C-CB74-C945-8192-91A3B44230D2}">
-            <xm:f>'C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
+            <xm:f>'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\robynstuart\Documents\git\atomica\tests\databooks\[progbook_tb_simple_dyn.xlsx]Program targeting'!#REF!&lt;&gt;"Y"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="lightUp">
